--- a/flexlab/sw_mat_HIL2/HIL2_switch_matrix_13NF_bal_offset.xlsx
+++ b/flexlab/sw_mat_HIL2/HIL2_switch_matrix_13NF_bal_offset.xlsx
@@ -2214,16 +2214,16 @@
         <v>1500</v>
       </c>
       <c r="I16" s="15">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="J16" s="15">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="K16" s="15">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="L16" s="15">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
